--- a/backend/templates/StudentListTemplate.xlsx
+++ b/backend/templates/StudentListTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\IP\IP-PhD-Management-Portal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2652F374-07B2-49CA-9E27-8AB73E1F5E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C37891-194D-447C-82FC-D5DF7CC48285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,8 +69,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,16 +357,17 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,8 +379,9 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <dataValidations count="1">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Email ID" error="Only &quot;@iiitd.ac.in&quot; Email ID is Allowed!" promptTitle="Input Format" prompt="Enter &quot;@iiitd.ac.in&quot; Email ID Only" sqref="C2:C1048576" xr:uid="{6834F096-AB37-4E78-A2A9-0B358371848E}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Email ID" error="Only &quot;@iiitd.ac.in&quot; Email ID is Allowed!" promptTitle="Input Format" prompt="Enter &quot;@iiitd.ac.in&quot; Email ID Only" sqref="C2:C1048576" xr:uid="{6834F096-AB37-4E78-A2A9-0B358371848E}">
       <formula1>AND(RIGHT(C5, 12) = "@iiitd.ac.in", LEN(C5) - LEN(SUBSTITUTE(C5, "@", "")) = 1, LEN(C5) &lt;= 255, COUNTIF(C:C, C5) = 1)</formula1>
     </dataValidation>
   </dataValidations>
